--- a/data/trans_orig/P27F_5-Urba-trans_orig.xlsx
+++ b/data/trans_orig/P27F_5-Urba-trans_orig.xlsx
@@ -7,7 +7,9 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M5" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Mz2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -543,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población según recibimiento de atención de salud mental (consulta al psiquiatra) cuando se necesitaba en Mz1 (tasa de respuesta: 99,74%)</t>
+          <t>Población según recibimiento de atención de salud mental (consulta al psiquiatra) cuando se necesitaba en M5 (tasa de respuesta: 99,73%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -841,97 +843,97 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>639</t>
+          <t>482</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>214303</t>
+          <t>1520754</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>209095</t>
+          <t>1474925</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>217974</t>
+          <t>1555324</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>93,89%</t>
+          <t>92,97%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>90,17%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>95,5%</t>
+          <t>95,09%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>766</t>
+          <t>578</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>213191</t>
+          <t>1637790</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>208093</t>
+          <t>1592733</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>218178</t>
+          <t>1672756</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>89,83%</t>
+          <t>91,4%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>87,68%</t>
+          <t>88,89%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>91,93%</t>
+          <t>93,35%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>1405</t>
+          <t>1060</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>427494</t>
+          <t>3158543</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>419692</t>
+          <t>3089887</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>433727</t>
+          <t>3208714</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>91,82%</t>
+          <t>92,15%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
@@ -941,7 +943,7 @@
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>93,16%</t>
+          <t>93,62%</t>
         </is>
       </c>
     </row>
@@ -954,107 +956,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>23</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8111</t>
+          <t>68324</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>43101</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>11621</t>
+          <t>102336</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>3,55%</t>
+          <t>4,18%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>2,64%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,09%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>34</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10861</t>
+          <t>90681</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>7705</t>
+          <t>63981</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>14691</t>
+          <t>128602</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,06%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>7,18%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>68</t>
+          <t>57</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>18972</t>
+          <t>159005</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>14795</t>
+          <t>124682</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>23893</t>
+          <t>214785</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>3,18%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>5,13%</t>
+          <t>6,27%</t>
         </is>
       </c>
     </row>
@@ -1067,107 +1069,107 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>26270</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10047</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>59185</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>3,62%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>3318</t>
+          <t>40677</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>1768</t>
+          <t>23331</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>6125</t>
+          <t>70246</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>20</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>3911</t>
+          <t>66947</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>2136</t>
+          <t>38305</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>6716</t>
+          <t>103240</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>1,12%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>1,44%</t>
+          <t>3,01%</t>
         </is>
       </c>
     </row>
@@ -1180,107 +1182,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>5236</t>
+          <t>20321</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>2627</t>
+          <t>8338</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>9600</t>
+          <t>46767</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>2,29%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,51%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>9954</t>
+          <t>22683</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>7112</t>
+          <t>10854</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>13756</t>
+          <t>42372</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>4,19%</t>
+          <t>1,27%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,61%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>5,8%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>15190</t>
+          <t>43004</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>11235</t>
+          <t>24597</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>21243</t>
+          <t>73096</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>4,56%</t>
+          <t>2,13%</t>
         </is>
       </c>
     </row>
@@ -1293,22 +1295,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>516</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>228243</t>
+          <t>1635669</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>228243</t>
+          <t>1635669</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>228243</t>
+          <t>1635669</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1328,22 +1330,22 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>856</t>
+          <t>636</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>237324</t>
+          <t>1791831</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>237324</t>
+          <t>1791831</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>237324</t>
+          <t>1791831</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1363,22 +1365,22 @@
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>1537</t>
+          <t>1152</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>465567</t>
+          <t>3427499</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>465567</t>
+          <t>3427499</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>465567</t>
+          <t>3427499</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1523,107 +1525,107 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>223</t>
+          <t>397</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69310</t>
+          <t>1307554</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>67134</t>
+          <t>1272818</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>70670</t>
+          <t>1332120</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>94,93%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>93,19%</t>
+          <t>92,41%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>98,1%</t>
+          <t>96,72%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>221</t>
+          <t>451</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>61232</t>
+          <t>1238065</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>58125</t>
+          <t>1193220</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>62877</t>
+          <t>1268334</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>93,7%</t>
+          <t>89,66%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>86,41%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>96,21%</t>
+          <t>91,85%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>444</t>
+          <t>848</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>130542</t>
+          <t>2545620</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>127131</t>
+          <t>2491298</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>133045</t>
+          <t>2593091</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>90,32%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>96,84%</t>
+          <t>94,01%</t>
         </is>
       </c>
     </row>
@@ -1636,107 +1638,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>14</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>1883</t>
+          <t>49401</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>794</t>
+          <t>28614</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3754</t>
+          <t>85222</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>3,59%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>2,08%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>6,19%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>32</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>2218</t>
+          <t>78926</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1079</t>
+          <t>54399</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>4506</t>
+          <t>111711</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>3,94%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>8,09%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>46</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>4101</t>
+          <t>128327</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>94697</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>7097</t>
+          <t>173806</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>2,98%</t>
+          <t>4,65%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>5,17%</t>
+          <t>6,3%</t>
         </is>
       </c>
     </row>
@@ -1749,107 +1751,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>15888</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6277</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1422</t>
+          <t>33964</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,34%</t>
+          <t>1,15%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,47%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>9</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>808</t>
+          <t>23163</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10814</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3168</t>
+          <t>42412</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,68%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>4,85%</t>
+          <t>3,07%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>15</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>1055</t>
+          <t>39051</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>234</t>
+          <t>21416</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>3387</t>
+          <t>64143</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>0,77%</t>
+          <t>1,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>0,17%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,33%</t>
         </is>
       </c>
     </row>
@@ -1867,7 +1869,7 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>602</t>
+          <t>4504</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
@@ -1877,12 +1879,12 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2232</t>
+          <t>16702</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,84%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
@@ -1892,77 +1894,77 @@
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>1,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>16</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1093</t>
+          <t>40743</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>284</t>
+          <t>23692</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>2706</t>
+          <t>68805</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>2,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,14%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>18</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>1694</t>
+          <t>45247</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>579</t>
+          <t>25618</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>3515</t>
+          <t>74302</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,42%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,56%</t>
+          <t>2,69%</t>
         </is>
       </c>
     </row>
@@ -1975,22 +1977,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>233</t>
+          <t>419</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>72041</t>
+          <t>1377347</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>72041</t>
+          <t>1377347</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>72041</t>
+          <t>1377347</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2010,22 +2012,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>235</t>
+          <t>508</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>65351</t>
+          <t>1380898</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>65351</t>
+          <t>1380898</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>65351</t>
+          <t>1380898</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2045,22 +2047,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>468</t>
+          <t>927</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>137392</t>
+          <t>2758245</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>137392</t>
+          <t>2758245</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>137392</t>
+          <t>2758245</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,7 +2099,7 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
@@ -2112,7 +2114,7 @@
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
@@ -2132,7 +2134,7 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
@@ -2147,7 +2149,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
@@ -2167,7 +2169,7 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
@@ -2182,7 +2184,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
@@ -2205,107 +2207,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>96</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>406665</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>387743</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>415895</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>92,46%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>118</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>399069</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>383132</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>406846</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,42%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>99,32%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>214</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>805733</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>784072</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>818960</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>97,19%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>94,58%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>98,79%</t>
         </is>
       </c>
     </row>
@@ -2318,107 +2320,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>12707</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>3477</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>31629</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6057</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>21481</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,48%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>18764</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>6644</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>40241</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,26%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,8%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>4,85%</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2438,7 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
@@ -2451,7 +2453,7 @@
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
@@ -2471,7 +2473,7 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
@@ -2486,7 +2488,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
@@ -2506,7 +2508,7 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
@@ -2521,7 +2523,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
@@ -2549,7 +2551,7 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
@@ -2564,7 +2566,7 @@
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
@@ -2579,72 +2581,72 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15111</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,1%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>4513</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>15853</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,54%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,91%</t>
         </is>
       </c>
     </row>
@@ -2657,107 +2659,107 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>100</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>419372</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>419372</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>419372</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>122</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>409638</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>409638</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>409638</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>222</t>
         </is>
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>829010</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>829010</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>829010</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100%</t>
         </is>
       </c>
     </row>
@@ -2887,107 +2889,107 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>975</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>283614</t>
+          <t>3234973</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>277211</t>
+          <t>3177397</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>287708</t>
+          <t>3279463</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>94,45%</t>
+          <t>94,25%</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>95,81%</t>
+          <t>95,54%</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>987</t>
+          <t>1147</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>274424</t>
+          <t>3274924</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>268485</t>
+          <t>3211641</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>279613</t>
+          <t>3326759</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
         <is>
-          <t>90,67%</t>
+          <t>91,42%</t>
         </is>
       </c>
       <c r="O23" s="2" t="inlineStr">
         <is>
-          <t>88,7%</t>
+          <t>89,65%</t>
         </is>
       </c>
       <c r="P23" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,86%</t>
         </is>
       </c>
       <c r="Q23" s="2" t="inlineStr">
         <is>
-          <t>1849</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>558036</t>
+          <t>6509897</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>550279</t>
+          <t>6430931</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>565067</t>
+          <t>6583006</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>92,55%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="V23" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>91,68%</t>
         </is>
       </c>
       <c r="W23" s="2" t="inlineStr">
         <is>
-          <t>93,72%</t>
+          <t>93,85%</t>
         </is>
       </c>
     </row>
@@ -3000,107 +3002,107 @@
       </c>
       <c r="C24" s="2" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>41</t>
         </is>
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>9994</t>
+          <t>130432</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>6964</t>
+          <t>94788</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>14316</t>
+          <t>173331</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>2,76%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>68</t>
         </is>
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>13079</t>
+          <t>175664</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>9680</t>
+          <t>136211</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>17270</t>
+          <t>224493</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>4,9%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>3,2%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
         <is>
-          <t>83</t>
+          <t>109</t>
         </is>
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>23073</t>
+          <t>306096</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>18563</t>
+          <t>249265</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>28230</t>
+          <t>373964</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>4,36%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>5,33%</t>
         </is>
       </c>
     </row>
@@ -3113,107 +3115,107 @@
       </c>
       <c r="C25" s="2" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>11</t>
         </is>
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>840</t>
+          <t>42158</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>246</t>
+          <t>22898</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>2449</t>
+          <t>78318</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>0,28%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>0,08%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>4126</t>
+          <t>63840</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>2057</t>
+          <t>40882</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>7085</t>
+          <t>97124</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>0,68%</t>
+          <t>1,14%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>4965</t>
+          <t>105998</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>2898</t>
+          <t>70867</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>8451</t>
+          <t>154483</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>0,82%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>0,48%</t>
+          <t>1,01%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>1,4%</t>
+          <t>2,2%</t>
         </is>
       </c>
     </row>
@@ -3226,107 +3228,107 @@
       </c>
       <c r="C26" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>8</t>
         </is>
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5838</t>
+          <t>24825</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>3160</t>
+          <t>11913</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>10718</t>
+          <t>51993</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>0,72%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
         <is>
-          <t>41</t>
+          <t>27</t>
         </is>
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>11046</t>
+          <t>67939</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>7824</t>
+          <t>44844</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>15512</t>
+          <t>99136</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>3,65%</t>
+          <t>1,9%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>2,58%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>2,77%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
         <is>
-          <t>56</t>
+          <t>35</t>
         </is>
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>16884</t>
+          <t>92764</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>13025</t>
+          <t>64740</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>22690</t>
+          <t>130051</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>2,16%</t>
+          <t>0,92%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>3,76%</t>
+          <t>1,85%</t>
         </is>
       </c>
     </row>
@@ -3339,6 +3341,2973 @@
       </c>
       <c r="C27" s="2" t="inlineStr">
         <is>
+          <t>1035</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>3432388</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>3432388</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>3432388</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1266</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>3582367</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>3582367</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>3582367</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2301</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>7014755</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>7014755</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>7014755</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención de salud mental (consulta al psiquiatra) cuando se necesitaba en Mz1 (tasa de respuesta: 99,74%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>639</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>214303</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>209095</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>217974</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93,89%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>91,61%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>95,5%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>766</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>213191</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>208093</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>218178</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>89,83%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>87,68%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>91,93%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>427494</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>419692</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>433727</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>91,82%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>90,15%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>93,16%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8111</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>5520</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>11621</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>3,55%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>2,42%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>5,09%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>10861</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>7705</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>14691</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4,58%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,19%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>18972</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>14795</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>23893</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>4,08%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>3,18%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>5,13%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>593</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>2097</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,26%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>0,92%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>3318</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>1768</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>6125</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>0,75%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>3911</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>2136</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>6716</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>0,46%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>5236</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>2627</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>9600</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>2,29%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>1,15%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>4,21%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>9954</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>7112</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>13756</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>3,0%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>5,8%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>15190</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>11235</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>21243</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>3,26%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>2,41%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>4,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>681</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>228243</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>228243</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>228243</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>856</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>237324</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>237324</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>237324</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1537</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>465567</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>465567</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>465567</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>69310</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>67134</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>70670</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>96,21%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>93,19%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>98,1%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>61232</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>58125</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>62877</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>93,7%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>88,94%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>96,21%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>444</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>130542</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>127131</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>133045</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>95,01%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>92,53%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>96,84%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>1883</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>794</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>3754</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>1,1%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>5,21%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>2218</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1079</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>4506</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>3,39%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,65%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>6,89%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>4101</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>2339</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>7097</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>1,7%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>5,17%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1422</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,34%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>808</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>3168</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>4,85%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1055</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>3387</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>0,77%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>2,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>602</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>2232</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>0,84%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>3,1%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1093</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>2706</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>1,67%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>4,14%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1694</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>579</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3515</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1,23%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,42%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>2,56%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>72041</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>72041</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>72041</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>65351</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>65351</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>65351</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>468</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>137392</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>137392</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>137392</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>862</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>283614</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>277211</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>287708</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>94,45%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>92,32%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>95,81%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>987</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>274424</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>268485</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>279613</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>90,67%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>88,7%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>92,38%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1849</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>558036</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>550279</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>565067</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>92,55%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>91,26%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>93,72%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>9994</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6964</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>14316</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>3,33%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>4,77%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>13079</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>9680</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>17270</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>3,2%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>5,71%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>23073</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>18563</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>28230</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>3,83%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>3,08%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>4,68%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>840</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>2449</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0,28%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,08%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>4126</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>2057</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>7085</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>1,36%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>0,68%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>2,34%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>4965</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>2898</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>8451</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>0,48%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>1,4%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>5838</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>3160</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>10718</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>1,05%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>3,57%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>11046</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>7824</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>15512</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>3,65%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>2,58%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>16884</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>13025</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>22690</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>2,16%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>3,76%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
           <t>914</t>
         </is>
       </c>
@@ -3425,6 +6394,2973 @@
       <c r="T27" s="2" t="inlineStr">
         <is>
           <t>602959</t>
+        </is>
+      </c>
+      <c r="U27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
+    <mergeCell ref="A22:A27"/>
+    <mergeCell ref="A4:A9"/>
+    <mergeCell ref="A16:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A10:A15"/>
+    <mergeCell ref="Q1:W1"/>
+    <mergeCell ref="C1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:W28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+    <col width="14" customWidth="1" min="21" max="21"/>
+    <col width="14" customWidth="1" min="22" max="22"/>
+    <col width="14" customWidth="1" min="23" max="23"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población según recibimiento de atención de salud mental (consulta al psiquiatra) cuando se necesitaba en Mz2 (tasa de respuesta: 99,67%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+      <c r="U1" s="3" t="n"/>
+      <c r="V1" s="3" t="n"/>
+      <c r="W1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>n (muestra)</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím inf IC)</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>N (lím sup IC)</t>
+        </is>
+      </c>
+      <c r="U2" s="3" t="inlineStr">
+        <is>
+          <t>Estimación puntual</t>
+        </is>
+      </c>
+      <c r="V2" s="3" t="inlineStr">
+        <is>
+          <t>lím inf IC</t>
+        </is>
+      </c>
+      <c r="W2" s="3" t="inlineStr">
+        <is>
+          <t>lím sup IC</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+      <c r="U3" s="2" t="n"/>
+      <c r="V3" s="2" t="n"/>
+      <c r="W3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U4" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>612</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>211697</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>206987</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>215157</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>93,41%</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>91,33%</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>94,93%</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>788</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>210501</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>204945</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>215756</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>89,33%</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>86,98%</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>91,56%</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>1400</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>422199</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>415575</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>429004</t>
+        </is>
+      </c>
+      <c r="U5" s="2" t="inlineStr">
+        <is>
+          <t>91,33%</t>
+        </is>
+      </c>
+      <c r="V5" s="2" t="inlineStr">
+        <is>
+          <t>89,9%</t>
+        </is>
+      </c>
+      <c r="W5" s="2" t="inlineStr">
+        <is>
+          <t>92,8%</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>11134</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>8183</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>15057</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4,91%</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>3,61%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>6,64%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>12321</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>8847</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>16066</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>5,23%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>3,75%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>6,82%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>23455</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>18783</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>28659</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
+          <t>4,06%</t>
+        </is>
+      </c>
+      <c r="W6" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>1405</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>3526</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>0,62%</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>0,17%</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>1,56%</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>9155</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>6149</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>13692</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>3,89%</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>2,61%</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>5,81%</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10560</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>7333</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>15507</t>
+        </is>
+      </c>
+      <c r="U7" s="2" t="inlineStr">
+        <is>
+          <t>2,28%</t>
+        </is>
+      </c>
+      <c r="V7" s="2" t="inlineStr">
+        <is>
+          <t>1,59%</t>
+        </is>
+      </c>
+      <c r="W7" s="2" t="inlineStr">
+        <is>
+          <t>3,35%</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>2400</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>1112</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>5036</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>1,06%</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,49%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>3656</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>2082</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>5758</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>1,55%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>0,88%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>2,44%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>6056</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>3792</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>9109</t>
+        </is>
+      </c>
+      <c r="U8" s="2" t="inlineStr">
+        <is>
+          <t>1,31%</t>
+        </is>
+      </c>
+      <c r="V8" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="W8" s="2" t="inlineStr">
+        <is>
+          <t>1,97%</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>661</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>226637</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>226637</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>226637</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>883</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>235633</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>235633</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>235633</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>1544</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>462270</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>462270</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>462270</t>
+        </is>
+      </c>
+      <c r="U9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W9" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>67742</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>64795</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>69776</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>92,72%</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>88,69%</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>95,5%</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>62608</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60313</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>64389</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>93,56%</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>90,13%</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>96,22%</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>130350</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>126742</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>133189</t>
+        </is>
+      </c>
+      <c r="U11" s="2" t="inlineStr">
+        <is>
+          <t>93,12%</t>
+        </is>
+      </c>
+      <c r="V11" s="2" t="inlineStr">
+        <is>
+          <t>90,54%</t>
+        </is>
+      </c>
+      <c r="W11" s="2" t="inlineStr">
+        <is>
+          <t>95,15%</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>3739</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>2176</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>6173</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>5,12%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>2,98%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>8,45%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3341</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>1876</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>5677</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>4,99%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>2,8%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>8,48%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>7081</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>4672</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>10236</t>
+        </is>
+      </c>
+      <c r="U12" s="2" t="inlineStr">
+        <is>
+          <t>5,06%</t>
+        </is>
+      </c>
+      <c r="V12" s="2" t="inlineStr">
+        <is>
+          <t>3,34%</t>
+        </is>
+      </c>
+      <c r="W12" s="2" t="inlineStr">
+        <is>
+          <t>7,31%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>1369</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0,6%</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>1,87%</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>679</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>2454</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>1,01%</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>3,67%</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>1114</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>2944</t>
+        </is>
+      </c>
+      <c r="U13" s="2" t="inlineStr">
+        <is>
+          <t>0,8%</t>
+        </is>
+      </c>
+      <c r="V13" s="2" t="inlineStr">
+        <is>
+          <t>0,3%</t>
+        </is>
+      </c>
+      <c r="W13" s="2" t="inlineStr">
+        <is>
+          <t>2,1%</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>1145</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>3377</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>1,57%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>4,62%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>1581</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>0,44%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2,36%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1436</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>460</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>3625</t>
+        </is>
+      </c>
+      <c r="U14" s="2" t="inlineStr">
+        <is>
+          <t>1,03%</t>
+        </is>
+      </c>
+      <c r="V14" s="2" t="inlineStr">
+        <is>
+          <t>0,33%</t>
+        </is>
+      </c>
+      <c r="W14" s="2" t="inlineStr">
+        <is>
+          <t>2,59%</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>73061</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>73061</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>73061</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>66919</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>475</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>139980</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>139980</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>139980</t>
+        </is>
+      </c>
+      <c r="U15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="V15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="W15" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W16" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W17" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n"/>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W19" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W20" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="V21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W21" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="V22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="W22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>No lo he necesitado</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>842</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>279438</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>274327</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>284153</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>93,24%</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>91,53%</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>94,81%</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>998</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>273109</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>266783</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>278114</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>90,27%</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>88,18%</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>91,92%</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>552548</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>545153</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>559175</t>
+        </is>
+      </c>
+      <c r="U23" s="2" t="inlineStr">
+        <is>
+          <t>91,75%</t>
+        </is>
+      </c>
+      <c r="V23" s="2" t="inlineStr">
+        <is>
+          <t>90,52%</t>
+        </is>
+      </c>
+      <c r="W23" s="2" t="inlineStr">
+        <is>
+          <t>92,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Sí lo pudo recibir</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>14874</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>10674</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>19317</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>4,96%</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>3,56%</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>6,45%</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>15662</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>12251</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>20239</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>5,18%</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>4,05%</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>6,69%</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>30536</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>25261</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>36452</t>
+        </is>
+      </c>
+      <c r="U24" s="2" t="inlineStr">
+        <is>
+          <t>5,07%</t>
+        </is>
+      </c>
+      <c r="V24" s="2" t="inlineStr">
+        <is>
+          <t>4,19%</t>
+        </is>
+      </c>
+      <c r="W24" s="2" t="inlineStr">
+        <is>
+          <t>6,05%</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n"/>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por otros motivos</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>1840</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>753</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>4021</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>0,61%</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>0,25%</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>1,34%</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>9833</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>6720</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>14474</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>3,25%</t>
+        </is>
+      </c>
+      <c r="O25" s="2" t="inlineStr">
+        <is>
+          <t>2,22%</t>
+        </is>
+      </c>
+      <c r="P25" s="2" t="inlineStr">
+        <is>
+          <t>4,78%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>11674</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>8646</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>16769</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>1,94%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>1,44%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
+          <t>2,78%</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>No lo pudo recibir por motivos económicos</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>3545</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>1759</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>6766</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>1,18%</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>0,59%</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>2,26%</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>3947</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>2387</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>6319</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>1,3%</t>
+        </is>
+      </c>
+      <c r="O26" s="2" t="inlineStr">
+        <is>
+          <t>0,79%</t>
+        </is>
+      </c>
+      <c r="P26" s="2" t="inlineStr">
+        <is>
+          <t>2,09%</t>
+        </is>
+      </c>
+      <c r="Q26" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>7493</t>
+        </is>
+      </c>
+      <c r="S26" s="2" t="inlineStr">
+        <is>
+          <t>4934</t>
+        </is>
+      </c>
+      <c r="T26" s="2" t="inlineStr">
+        <is>
+          <t>11144</t>
+        </is>
+      </c>
+      <c r="U26" s="2" t="inlineStr">
+        <is>
+          <t>1,24%</t>
+        </is>
+      </c>
+      <c r="V26" s="2" t="inlineStr">
+        <is>
+          <t>0,82%</t>
+        </is>
+      </c>
+      <c r="W26" s="2" t="inlineStr">
+        <is>
+          <t>1,85%</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>910</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>299697</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>299697</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>299697</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>1109</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>302552</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>302552</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>302552</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="O27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="P27" s="2" t="inlineStr">
+        <is>
+          <t>100%</t>
+        </is>
+      </c>
+      <c r="Q27" s="2" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>602250</t>
+        </is>
+      </c>
+      <c r="S27" s="2" t="inlineStr">
+        <is>
+          <t>602250</t>
+        </is>
+      </c>
+      <c r="T27" s="2" t="inlineStr">
+        <is>
+          <t>602250</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
